--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Peer_S2_Peer_S1.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Peer_S2_Peer_S1.xlsx
@@ -21,14 +21,13 @@
     <t>content</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "What kind of ambiance do you like?" &lt;br&gt;
- &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I like the most quiet restaurants." &lt;br&gt;
+    <t>&lt;b&gt;&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "What kind of ambiance do you like?" &lt;br&gt;
+ &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet restaurants." &lt;br&gt;
 &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: " Let's go to a quiet restaurant." &lt;br&gt; 
     &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Okay, let's choose a quiet restaurant." &lt;br&gt; 
 &lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Let's go to the Victor restaurant." &lt;br&gt;
  &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Okay, I'll call to book a table." &lt;br&gt;
-&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Ok." &lt;br&gt; &lt;/b&gt;
-</t>
+&lt;br&gt;&lt;b&gt;A&lt;/b&gt;: "Ok." &lt;br&gt; &lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -372,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
